--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\PythonProjects\openpyxl_practice\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C19D1312-5259-4EA2-8F87-5BACCBA825BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC43743F-2815-4A0C-B3CD-7457DA234027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE41A9CE-C7A9-4B5F-B3B7-C166BCE14748}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,11 +82,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a&gt;b=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b&gt;a&gt;c</t>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +167,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,185 +490,252 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E601EDCF-2E06-4BE4-A606-A1EA86A31091}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="8.6640625" style="1"/>
     <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="b">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="b">
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1">
-        <v>26</v>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
